--- a/wk/DB設計/001_テーブル定義/テーブル定義‗締め管理.xlsx
+++ b/wk/DB設計/001_テーブル定義/テーブル定義‗締め管理.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\main\010_仕事\900_etc\010_自社プロジェクト\001_勤怠管理システム\DB設計\001_テーブル定義\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\attend\Attend-Doc\wk\DB設計\001_テーブル定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AD2623-ABC0-4DA5-8E0F-361FF1D96DD2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル定義" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>No.</t>
     <phoneticPr fontId="2"/>
@@ -237,10 +237,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>SHIMEKANRI</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>年月</t>
   </si>
   <si>
@@ -272,7 +268,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,###"/>
   </numFmts>
@@ -504,6 +500,134 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>勤務時間</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>ATTENDANCE</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>勤務時間設定</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>ATTENDANCE_MST</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>社員マスタ</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>EMPLOYEE_MST</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>祝日管理</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>HOLIDAY_MST</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>申請</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>APPLICATION</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>申請マスタ</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>APPLICATION_MST</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>締め管理</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>CLOSE</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>有給管理</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>PAID_HOLIDAY</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>申請詳細</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>APPLICATION_DETAIL</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>休暇取得申請</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>HOLIDAY_APPLICATION</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>通勤手当申請</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>COMMUTING_APPLICATION</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>経費申請</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>EXPENSE_APPLICATION</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>書籍購入支援申請</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>BOOK_PURCHASE_APPLICATION</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>休日出勤申請</v>
+          </cell>
+          <cell r="D19" t="str">
+            <v>HOLIDAY_WORK_APPLICATION</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
       <sheetName val="カラムリスト"/>
       <sheetName val="Sheet2"/>
     </sheetNames>
@@ -531,7 +655,7 @@
             <v>社員番号</v>
           </cell>
           <cell r="C4" t="str">
-            <v>SyainNo</v>
+            <v>EmployeeNo</v>
           </cell>
           <cell r="D4" t="str">
             <v>VARCHAR</v>
@@ -565,7 +689,7 @@
             <v>入社年月日</v>
           </cell>
           <cell r="C6" t="str">
-            <v>NyusyaDate</v>
+            <v>JoinDate</v>
           </cell>
           <cell r="D6" t="str">
             <v>VARCHAR</v>
@@ -579,7 +703,7 @@
         </row>
         <row r="7">
           <cell r="B7" t="str">
-            <v>退職年月日</v>
+            <v>退社年月日</v>
           </cell>
           <cell r="C7" t="str">
             <v>RetireDate</v>
@@ -755,10 +879,10 @@
         </row>
         <row r="20">
           <cell r="B20" t="str">
-            <v>休暇/休出理由</v>
+            <v>作業内容</v>
           </cell>
           <cell r="C20" t="str">
-            <v>Reason</v>
+            <v>WorkContents</v>
           </cell>
           <cell r="D20" t="str">
             <v>VARCHAR</v>
@@ -769,268 +893,1054 @@
         </row>
         <row r="21">
           <cell r="B21" t="str">
-            <v>作業内容</v>
+            <v>申請番号</v>
           </cell>
           <cell r="C21" t="str">
-            <v>WorkContents</v>
+            <v>AppNo</v>
           </cell>
           <cell r="D21" t="str">
             <v>VARCHAR</v>
           </cell>
           <cell r="E21">
-            <v>300</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="22">
           <cell r="B22" t="str">
-            <v>申請番号</v>
+            <v>備考</v>
           </cell>
           <cell r="C22" t="str">
-            <v>AppNo</v>
+            <v>Remark</v>
           </cell>
           <cell r="D22" t="str">
             <v>VARCHAR</v>
           </cell>
           <cell r="E22">
-            <v>10</v>
+            <v>1000</v>
           </cell>
         </row>
         <row r="23">
           <cell r="B23" t="str">
-            <v>備考</v>
+            <v>確認依頼フラグ</v>
           </cell>
           <cell r="C23" t="str">
-            <v>Remark</v>
+            <v>ConfiirmRequestFlg</v>
           </cell>
           <cell r="D23" t="str">
             <v>VARCHAR</v>
           </cell>
           <cell r="E23">
-            <v>1000</v>
+            <v>1</v>
+          </cell>
+          <cell r="F23" t="str">
+            <v>0：問題なし（初期値） ／ 1：確認要</v>
           </cell>
         </row>
         <row r="24">
           <cell r="B24" t="str">
-            <v>確認依頼フラグ</v>
+            <v>確認コメント</v>
           </cell>
           <cell r="C24" t="str">
-            <v>ConfiirmRequestFlg</v>
+            <v>ConfiirmComment</v>
           </cell>
           <cell r="D24" t="str">
             <v>VARCHAR</v>
           </cell>
           <cell r="E24">
-            <v>1</v>
-          </cell>
-          <cell r="F24" t="str">
-            <v>0：問題なし（初期値） ／ 1：確認要</v>
+            <v>1000</v>
           </cell>
         </row>
         <row r="25">
           <cell r="B25" t="str">
-            <v>確認コメント</v>
+            <v>申請ID</v>
           </cell>
           <cell r="C25" t="str">
-            <v>ConfiirmComment</v>
+            <v>AppId</v>
           </cell>
           <cell r="D25" t="str">
             <v>VARCHAR</v>
           </cell>
           <cell r="E25">
-            <v>1000</v>
+            <v>3</v>
+          </cell>
+          <cell r="F25" t="str">
+            <v>コード定義の「申請ID」参照</v>
           </cell>
         </row>
         <row r="26">
           <cell r="B26" t="str">
-            <v>申請ID</v>
+            <v>申請名</v>
           </cell>
           <cell r="C26" t="str">
-            <v>AppId</v>
+            <v>AppName</v>
           </cell>
           <cell r="D26" t="str">
             <v>VARCHAR</v>
           </cell>
           <cell r="E26">
-            <v>3</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="27">
           <cell r="B27" t="str">
-            <v>申請名</v>
+            <v>申請日</v>
           </cell>
           <cell r="C27" t="str">
-            <v>AppName</v>
+            <v>AppDate</v>
           </cell>
           <cell r="D27" t="str">
             <v>VARCHAR</v>
           </cell>
           <cell r="E27">
-            <v>100</v>
+            <v>8</v>
+          </cell>
+          <cell r="F27" t="str">
+            <v>フォーマット：YYYYMMDD</v>
           </cell>
         </row>
         <row r="28">
           <cell r="B28" t="str">
-            <v>申請日</v>
+            <v>承認日</v>
           </cell>
           <cell r="C28" t="str">
-            <v>AppDate</v>
+            <v>ApprovalDate</v>
           </cell>
           <cell r="D28" t="str">
-            <v>DATETIME</v>
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E28">
+            <v>8</v>
+          </cell>
+          <cell r="F28" t="str">
+            <v>フォーマット：YYYYMMDD</v>
           </cell>
         </row>
         <row r="29">
           <cell r="B29" t="str">
-            <v>承認日</v>
+            <v>締めステータス</v>
           </cell>
           <cell r="C29" t="str">
-            <v>ApprovalDate</v>
+            <v>DeadlineStatus</v>
           </cell>
           <cell r="D29" t="str">
-            <v>DATETIME</v>
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E29">
+            <v>1</v>
+          </cell>
+          <cell r="F29" t="str">
+            <v>0：締め前（初期値） ／ 1：締め済み</v>
           </cell>
         </row>
         <row r="30">
           <cell r="B30" t="str">
-            <v>締めステータス</v>
+            <v>有給日数</v>
           </cell>
           <cell r="C30" t="str">
-            <v>DeadlineStatus</v>
+            <v>Paid</v>
           </cell>
           <cell r="D30" t="str">
             <v>VARCHAR</v>
           </cell>
           <cell r="E30">
-            <v>1</v>
-          </cell>
-          <cell r="F30" t="str">
-            <v>0：締め前（初期値） ／ 1：締め済み</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="31">
           <cell r="B31" t="str">
-            <v>有給日数</v>
+            <v>祝日名称</v>
           </cell>
           <cell r="C31" t="str">
-            <v>Paid</v>
+            <v>HolidayName</v>
           </cell>
           <cell r="D31" t="str">
             <v>VARCHAR</v>
           </cell>
           <cell r="E31">
-            <v>3</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="32">
           <cell r="B32" t="str">
-            <v>祝日名称</v>
+            <v>登録日</v>
           </cell>
           <cell r="C32" t="str">
-            <v>HolidayName</v>
+            <v>EntryDate</v>
           </cell>
           <cell r="D32" t="str">
-            <v>VARCHAR</v>
-          </cell>
-          <cell r="E32">
-            <v>100</v>
+            <v>DATETIME</v>
           </cell>
         </row>
         <row r="33">
           <cell r="B33" t="str">
-            <v>登録日</v>
+            <v>登録者ID</v>
           </cell>
           <cell r="C33" t="str">
-            <v>EntryDate</v>
+            <v>EntryUser</v>
           </cell>
           <cell r="D33" t="str">
-            <v>DATETIME</v>
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E33">
+            <v>10</v>
           </cell>
         </row>
         <row r="34">
           <cell r="B34" t="str">
-            <v>登録者ID</v>
+            <v>更新日</v>
           </cell>
           <cell r="C34" t="str">
-            <v>EntryUser</v>
+            <v>UpdateDate</v>
           </cell>
           <cell r="D34" t="str">
-            <v>VARCHAR</v>
-          </cell>
-          <cell r="E34">
-            <v>10</v>
+            <v>DATETIME</v>
           </cell>
         </row>
         <row r="35">
           <cell r="B35" t="str">
-            <v>更新日</v>
+            <v>更新者ID</v>
           </cell>
           <cell r="C35" t="str">
-            <v>UpdateDate</v>
+            <v>UpdateUser</v>
           </cell>
           <cell r="D35" t="str">
-            <v>DATETIME</v>
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E35">
+            <v>10</v>
           </cell>
         </row>
         <row r="36">
           <cell r="B36" t="str">
-            <v>更新者ID</v>
+            <v>削除フラグ</v>
           </cell>
           <cell r="C36" t="str">
-            <v>UpdateUser</v>
+            <v>DelFlg</v>
           </cell>
           <cell r="D36" t="str">
             <v>VARCHAR</v>
           </cell>
           <cell r="E36">
-            <v>10</v>
+            <v>1</v>
+          </cell>
+          <cell r="F36" t="str">
+            <v>0：未削除（初期値） ／ 1：削除</v>
           </cell>
         </row>
         <row r="37">
           <cell r="B37" t="str">
-            <v>削除フラグ</v>
+            <v>氏名かな</v>
           </cell>
           <cell r="C37" t="str">
-            <v>DelFlg</v>
+            <v>NameKana</v>
           </cell>
           <cell r="D37" t="str">
             <v>VARCHAR</v>
           </cell>
           <cell r="E37">
-            <v>1</v>
-          </cell>
-          <cell r="F37" t="str">
-            <v>0：未削除（初期値） ／ 1：削除</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="38">
           <cell r="B38" t="str">
-            <v>氏名かな</v>
+            <v>年月日</v>
           </cell>
           <cell r="C38" t="str">
-            <v>NameKana</v>
+            <v>Ymd</v>
           </cell>
           <cell r="D38" t="str">
             <v>VARCHAR</v>
           </cell>
           <cell r="E38">
-            <v>100</v>
+            <v>8</v>
+          </cell>
+          <cell r="F38" t="str">
+            <v>フォーマット：YYYYMMDD</v>
           </cell>
         </row>
         <row r="39">
           <cell r="B39" t="str">
-            <v>年月日</v>
+            <v>文書区分</v>
           </cell>
           <cell r="C39" t="str">
-            <v>Ymd</v>
+            <v>DocKbn</v>
           </cell>
           <cell r="D39" t="str">
             <v>VARCHAR</v>
           </cell>
           <cell r="E39">
+            <v>2</v>
+          </cell>
+          <cell r="F39" t="str">
+            <v>コード定義の「文書区分」参照</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40" t="str">
+            <v>文書説明</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>DocDescription</v>
+          </cell>
+          <cell r="D40" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E40">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41" t="str">
+            <v>承認ステータス</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v>ApprovalStatus</v>
+          </cell>
+          <cell r="D41" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E41">
+            <v>1</v>
+          </cell>
+          <cell r="F41" t="str">
+            <v>コード定義の「承認ステータス」参照</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42" t="str">
+            <v>承認者ID</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>ApprovalUser</v>
+          </cell>
+          <cell r="D42" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E42">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43" t="str">
+            <v>承認ルート</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v>ApprovalRoute</v>
+          </cell>
+          <cell r="D43" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E43">
+            <v>1</v>
+          </cell>
+          <cell r="F43" t="str">
+            <v>コード定義の「承認ルート」参照</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44" t="str">
+            <v>承認順位</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>ApprovalOrder</v>
+          </cell>
+          <cell r="D44" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E44">
+            <v>1</v>
+          </cell>
+          <cell r="F44" t="str">
+            <v>コード定義の「承認順位」参照</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45" t="str">
+            <v>休暇取得日（FROM）</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v>HolidayFrom</v>
+          </cell>
+          <cell r="D45" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E45">
             <v>8</v>
           </cell>
-          <cell r="F39" t="str">
+          <cell r="F45" t="str">
             <v>フォーマット：YYYYMMDD</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46" t="str">
+            <v>休暇取得日（TO）</v>
+          </cell>
+          <cell r="C46" t="str">
+            <v>HolidayTo</v>
+          </cell>
+          <cell r="D46" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E46">
+            <v>8</v>
+          </cell>
+          <cell r="F46" t="str">
+            <v>フォーマット：YYYYMMDD</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47" t="str">
+            <v>休暇区分</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v>HolidayKbn</v>
+          </cell>
+          <cell r="D47" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E47">
+            <v>1</v>
+          </cell>
+          <cell r="F47" t="str">
+            <v>コード定義の「休暇区分」参照</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48" t="str">
+            <v>休暇日数</v>
+          </cell>
+          <cell r="C48" t="str">
+            <v>HolidayCount</v>
+          </cell>
+          <cell r="D48" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E48">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49" t="str">
+            <v>対象年月</v>
+          </cell>
+          <cell r="C49" t="str">
+            <v>CommutingYｍ</v>
+          </cell>
+          <cell r="D49" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E49">
+            <v>6</v>
+          </cell>
+          <cell r="F49" t="str">
+            <v>フォーマット：YYYYMM</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50" t="str">
+            <v>交通機関種類</v>
+          </cell>
+          <cell r="C50" t="str">
+            <v>TransKbn</v>
+          </cell>
+          <cell r="D50" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E50">
+            <v>2</v>
+          </cell>
+          <cell r="F50" t="str">
+            <v>コード定義の「交通機関種類」参照</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51" t="str">
+            <v>購入区分</v>
+          </cell>
+          <cell r="C51" t="str">
+            <v>BuyKbn</v>
+          </cell>
+          <cell r="D51" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E51">
+            <v>1</v>
+          </cell>
+          <cell r="F51" t="str">
+            <v>コード定義の「購入区分」参照</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52" t="str">
+            <v>通勤区間（FROM）</v>
+          </cell>
+          <cell r="C52" t="str">
+            <v>CommutingFrom</v>
+          </cell>
+          <cell r="D52" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E52">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53" t="str">
+            <v>通勤区間（TO）</v>
+          </cell>
+          <cell r="C53" t="str">
+            <v>CommutingTo</v>
+          </cell>
+          <cell r="D53" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E53">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54" t="str">
+            <v>通勤費（1ヶ月）</v>
+          </cell>
+          <cell r="C54" t="str">
+            <v>CommutingFeeMonth</v>
+          </cell>
+          <cell r="D54" t="str">
+            <v>NUMBER</v>
+          </cell>
+          <cell r="E54">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55" t="str">
+            <v>通勤費（1日）</v>
+          </cell>
+          <cell r="C55" t="str">
+            <v>CommutingFeeDay</v>
+          </cell>
+          <cell r="D55" t="str">
+            <v>NUMBER</v>
+          </cell>
+          <cell r="E55">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56" t="str">
+            <v>通勤日数</v>
+          </cell>
+          <cell r="C56" t="str">
+            <v>CommutingCount</v>
+          </cell>
+          <cell r="D56" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E56">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57" t="str">
+            <v>経費区分</v>
+          </cell>
+          <cell r="C57" t="str">
+            <v>ExpenseKbn</v>
+          </cell>
+          <cell r="D57" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E57">
+            <v>2</v>
+          </cell>
+          <cell r="F57" t="str">
+            <v>コード定義の「経費区分」参照</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58" t="str">
+            <v>経費内容</v>
+          </cell>
+          <cell r="C58" t="str">
+            <v>ExpenseContents</v>
+          </cell>
+          <cell r="D58" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E58">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59" t="str">
+            <v>経費</v>
+          </cell>
+          <cell r="C59" t="str">
+            <v>ExpenseAmount</v>
+          </cell>
+          <cell r="D59" t="str">
+            <v>NUMBER</v>
+          </cell>
+          <cell r="E59">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60" t="str">
+            <v>書籍名</v>
+          </cell>
+          <cell r="C60" t="str">
+            <v>BookName</v>
+          </cell>
+          <cell r="D60" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E60">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61" t="str">
+            <v>精算方法</v>
+          </cell>
+          <cell r="C61" t="str">
+            <v>PayoffKbn</v>
+          </cell>
+          <cell r="D61" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E61">
+            <v>1</v>
+          </cell>
+          <cell r="F61" t="str">
+            <v>コード定義の「精算方法」参照</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62" t="str">
+            <v>承認区分</v>
+          </cell>
+          <cell r="C62" t="str">
+            <v>ApprovalKbn</v>
+          </cell>
+          <cell r="D62" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E62">
+            <v>1</v>
+          </cell>
+          <cell r="F62" t="str">
+            <v>コード定義の「承認区分」参照</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63" t="str">
+            <v>購入理由</v>
+          </cell>
+          <cell r="C63" t="str">
+            <v>BuyReason</v>
+          </cell>
+          <cell r="D63" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E63">
+            <v>300</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64" t="str">
+            <v>特記事項</v>
+          </cell>
+          <cell r="C64" t="str">
+            <v>Notices</v>
+          </cell>
+          <cell r="D64" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E64">
+            <v>1000</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65" t="str">
+            <v>購入年月日</v>
+          </cell>
+          <cell r="C65" t="str">
+            <v>BuyDay</v>
+          </cell>
+          <cell r="D65" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E65">
+            <v>8</v>
+          </cell>
+          <cell r="F65" t="str">
+            <v>フォーマット：YYYYMMDD</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66" t="str">
+            <v>休日出勤理由</v>
+          </cell>
+          <cell r="C66" t="str">
+            <v>HolidayWorkReason</v>
+          </cell>
+          <cell r="D66" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E66">
+            <v>300</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67" t="str">
+            <v>作業日</v>
+          </cell>
+          <cell r="C67" t="str">
+            <v>WorkDay</v>
+          </cell>
+          <cell r="D67" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E67">
+            <v>8</v>
+          </cell>
+          <cell r="F67" t="str">
+            <v>フォーマット：YYYYMMDD</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68" t="str">
+            <v>振替休日取得区分</v>
+          </cell>
+          <cell r="C68" t="str">
+            <v>TransHolidayKbn</v>
+          </cell>
+          <cell r="D68" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E68">
+            <v>1</v>
+          </cell>
+          <cell r="F68" t="str">
+            <v>コード定義の「振替休日取得区分」参照</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69" t="str">
+            <v>振替休日</v>
+          </cell>
+          <cell r="C69" t="str">
+            <v>TransHoliday</v>
+          </cell>
+          <cell r="D69" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E69">
+            <v>8</v>
+          </cell>
+          <cell r="F69" t="str">
+            <v>フォーマット：YYYYMMDD</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70" t="str">
+            <v>振替休日なし理由</v>
+          </cell>
+          <cell r="C70" t="str">
+            <v>NoTransReason</v>
+          </cell>
+          <cell r="D70" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E70">
+            <v>300</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71" t="str">
+            <v>経費発生年月日</v>
+          </cell>
+          <cell r="C71" t="str">
+            <v>ExpenseDay</v>
+          </cell>
+          <cell r="D71" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E71">
+            <v>8</v>
+          </cell>
+          <cell r="F71" t="str">
+            <v>フォーマット：YYYYMMDD</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72" t="str">
+            <v>購入金額</v>
+          </cell>
+          <cell r="C72" t="str">
+            <v>BuyAmount</v>
+          </cell>
+          <cell r="D72" t="str">
+            <v>NUMBER</v>
+          </cell>
+          <cell r="E72">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73" t="str">
+            <v>明細No.</v>
+          </cell>
+          <cell r="C73" t="str">
+            <v>LineNo</v>
+          </cell>
+          <cell r="D73" t="str">
+            <v>NUMBER</v>
+          </cell>
+          <cell r="E73">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74" t="str">
+            <v>性別</v>
+          </cell>
+          <cell r="C74" t="str">
+            <v>Gender</v>
+          </cell>
+          <cell r="D74" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E74">
+            <v>1</v>
+          </cell>
+          <cell r="F74" t="str">
+            <v>コード定義の「性別」参照</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75" t="str">
+            <v>部署</v>
+          </cell>
+          <cell r="C75" t="str">
+            <v>Department</v>
+          </cell>
+          <cell r="D75" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E75">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76" t="str">
+            <v>グループ</v>
+          </cell>
+          <cell r="C76" t="str">
+            <v>Group</v>
+          </cell>
+          <cell r="D76" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E76">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77" t="str">
+            <v>役職</v>
+          </cell>
+          <cell r="C77" t="str">
+            <v>Position</v>
+          </cell>
+          <cell r="D77" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E77">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78" t="str">
+            <v>承認権限</v>
+          </cell>
+          <cell r="C78" t="str">
+            <v>ApprovalAuth</v>
+          </cell>
+          <cell r="D78" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E78">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79" t="str">
+            <v>自宅郵便番号１</v>
+          </cell>
+          <cell r="C79" t="str">
+            <v>HomeZip1</v>
+          </cell>
+          <cell r="D79" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E79">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80" t="str">
+            <v>自宅郵便番号２</v>
+          </cell>
+          <cell r="C80" t="str">
+            <v>HomeZip2</v>
+          </cell>
+          <cell r="D80" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E80">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81" t="str">
+            <v>自宅住所１</v>
+          </cell>
+          <cell r="C81" t="str">
+            <v>HomeAddress1</v>
+          </cell>
+          <cell r="D81" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E81">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82" t="str">
+            <v>自宅住所２</v>
+          </cell>
+          <cell r="C82" t="str">
+            <v>HomeAddress2</v>
+          </cell>
+          <cell r="D82" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E82">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="B83" t="str">
+            <v>自宅住所３</v>
+          </cell>
+          <cell r="C83" t="str">
+            <v>HomeAddress3</v>
+          </cell>
+          <cell r="D83" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E83">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="B84" t="str">
+            <v>自宅住所４</v>
+          </cell>
+          <cell r="C84" t="str">
+            <v>HomeAddress4</v>
+          </cell>
+          <cell r="D84" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E84">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="B85" t="str">
+            <v>自宅電話番号１</v>
+          </cell>
+          <cell r="C85" t="str">
+            <v>HomePhoneNo1</v>
+          </cell>
+          <cell r="D85" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E85">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="B86" t="str">
+            <v>自宅電話番号２</v>
+          </cell>
+          <cell r="C86" t="str">
+            <v>HomePhoneNo2</v>
+          </cell>
+          <cell r="D86" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E86">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="B87" t="str">
+            <v>自宅電話番号３</v>
+          </cell>
+          <cell r="C87" t="str">
+            <v>HomePhoneNo3</v>
+          </cell>
+          <cell r="D87" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E87">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88" t="str">
+            <v>携帯電話番号１</v>
+          </cell>
+          <cell r="C88" t="str">
+            <v>MobilePhoneNo1</v>
+          </cell>
+          <cell r="D88" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E88">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="B89" t="str">
+            <v>携帯電話番号２</v>
+          </cell>
+          <cell r="C89" t="str">
+            <v>MobilePhoneNo2</v>
+          </cell>
+          <cell r="D89" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E89">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="B90" t="str">
+            <v>携帯電話番号３</v>
+          </cell>
+          <cell r="C90" t="str">
+            <v>MobilePhoneNo3</v>
+          </cell>
+          <cell r="D90" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E90">
+            <v>5</v>
           </cell>
         </row>
       </sheetData>
@@ -1302,29 +2212,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:P2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.350000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="17.45" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.9375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.3125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="7.6875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="7.75" style="1" customWidth="1"/>
     <col min="9" max="20" width="4.75" style="1" customWidth="1"/>
-    <col min="21" max="22" width="30.5625" style="1" customWidth="1"/>
+    <col min="21" max="22" width="30.625" style="1" customWidth="1"/>
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="17.350000000000001" customHeight="1">
+    <row r="1" spans="1:22" ht="17.45" customHeight="1">
       <c r="A1" s="20" t="s">
         <v>12</v>
       </c>
@@ -1354,7 +2264,7 @@
       </c>
       <c r="N1" s="26"/>
       <c r="O1" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P1" s="27"/>
       <c r="Q1" s="10" t="s">
@@ -1366,7 +2276,7 @@
       <c r="U1" s="25"/>
       <c r="V1" s="25"/>
     </row>
-    <row r="2" spans="1:22" ht="17.350000000000001" customHeight="1">
+    <row r="2" spans="1:22" ht="17.45" customHeight="1">
       <c r="A2" s="20" t="s">
         <v>13</v>
       </c>
@@ -1402,13 +2312,14 @@
       <c r="U2" s="25"/>
       <c r="V2" s="25"/>
     </row>
-    <row r="3" spans="1:22" ht="17.350000000000001" customHeight="1">
+    <row r="3" spans="1:22" ht="17.45" customHeight="1">
       <c r="A3" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="20"/>
-      <c r="C3" s="30" t="s">
-        <v>29</v>
+      <c r="C3" s="30" t="str">
+        <f>IFERROR(INDEX([1]Sheet1!$B$6:$E$50,(MATCH(F3,[1]Sheet1!$B$6:$B$50,0)),3),"")</f>
+        <v>CLOSE</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="6" t="s">
@@ -1443,7 +2354,7 @@
       <c r="U3" s="25"/>
       <c r="V3" s="25"/>
     </row>
-    <row r="5" spans="1:22" ht="17.350000000000001" customHeight="1">
+    <row r="5" spans="1:22" ht="17.45" customHeight="1">
       <c r="A5" s="10" t="s">
         <v>0</v>
       </c>
@@ -1487,7 +2398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="17.350000000000001" customHeight="1">
+    <row r="6" spans="1:22" ht="17.45" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
         <v>3</v>
@@ -1535,25 +2446,25 @@
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
     </row>
-    <row r="7" spans="1:22" ht="17.350000000000001" customHeight="1">
+    <row r="7" spans="1:22" ht="17.45" customHeight="1">
       <c r="A7" s="2">
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="14" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B7,[1]カラムリスト!$B$4:$B$1000,0),MATCH($D$6,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B7,[2]カラムリスト!$B$4:$B$1000,0),MATCH($D$6,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>Ym</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="8" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B7,[1]カラムリスト!$B$4:$B$1000,0),MATCH($F$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B7,[2]カラムリスト!$B$4:$B$1000,0),MATCH($F$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>VARCHAR</v>
       </c>
       <c r="G7" s="8">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B7,[1]カラムリスト!$B$4:$B$1000,0),MATCH($G$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B7,[2]カラムリスト!$B$4:$B$1000,0),MATCH($G$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>6</v>
       </c>
       <c r="H7" s="2"/>
@@ -1570,30 +2481,30 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="9" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B7,[1]カラムリスト!$B$4:$B$1000,0),MATCH($U$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B7,[2]カラムリスト!$B$4:$B$1000,0),MATCH($U$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>フォーマット：YYYYMM</v>
       </c>
       <c r="V7" s="3"/>
     </row>
-    <row r="8" spans="1:22" ht="17.350000000000001" customHeight="1">
+    <row r="8" spans="1:22" ht="17.45" customHeight="1">
       <c r="A8" s="2">
         <v>2</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="14" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B8,[1]カラムリスト!$B$4:$B$1000,0),MATCH($D$6,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B8,[2]カラムリスト!$B$4:$B$1000,0),MATCH($D$6,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>DeadlineStatus</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="8" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B8,[1]カラムリスト!$B$4:$B$1000,0),MATCH($F$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B8,[2]カラムリスト!$B$4:$B$1000,0),MATCH($F$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>VARCHAR</v>
       </c>
       <c r="G8" s="8">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B8,[1]カラムリスト!$B$4:$B$1000,0),MATCH($G$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B8,[2]カラムリスト!$B$4:$B$1000,0),MATCH($G$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>1</v>
       </c>
       <c r="H8" s="2"/>
@@ -1610,30 +2521,30 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="9" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B8,[1]カラムリスト!$B$4:$B$1000,0),MATCH($U$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B8,[2]カラムリスト!$B$4:$B$1000,0),MATCH($U$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>0：締め前（初期値） ／ 1：締め済み</v>
       </c>
       <c r="V8" s="3"/>
     </row>
-    <row r="9" spans="1:22" ht="17.350000000000001" customHeight="1">
+    <row r="9" spans="1:22" ht="17.45" customHeight="1">
       <c r="A9" s="7">
         <v>3</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="14" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B9,[1]カラムリスト!$B$4:$B$1000,0),MATCH($D$6,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B9,[2]カラムリスト!$B$4:$B$1000,0),MATCH($D$6,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>EntryDate</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="8" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B9,[1]カラムリスト!$B$4:$B$1000,0),MATCH($F$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B9,[2]カラムリスト!$B$4:$B$1000,0),MATCH($F$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>DATETIME</v>
       </c>
       <c r="G9" s="8">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B9,[1]カラムリスト!$B$4:$B$1000,0),MATCH($G$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B9,[2]カラムリスト!$B$4:$B$1000,0),MATCH($G$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>0</v>
       </c>
       <c r="H9" s="2"/>
@@ -1650,30 +2561,30 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="9">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B9,[1]カラムリスト!$B$4:$B$1000,0),MATCH($U$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B9,[2]カラムリスト!$B$4:$B$1000,0),MATCH($U$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>0</v>
       </c>
       <c r="V9" s="3"/>
     </row>
-    <row r="10" spans="1:22" ht="17.350000000000001" customHeight="1">
+    <row r="10" spans="1:22" ht="17.45" customHeight="1">
       <c r="A10" s="7">
         <v>4</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="14" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B10,[1]カラムリスト!$B$4:$B$1000,0),MATCH($D$6,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B10,[2]カラムリスト!$B$4:$B$1000,0),MATCH($D$6,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>EntryUser</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="8" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B10,[1]カラムリスト!$B$4:$B$1000,0),MATCH($F$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B10,[2]カラムリスト!$B$4:$B$1000,0),MATCH($F$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>VARCHAR</v>
       </c>
       <c r="G10" s="8">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B10,[1]カラムリスト!$B$4:$B$1000,0),MATCH($G$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B10,[2]カラムリスト!$B$4:$B$1000,0),MATCH($G$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>10</v>
       </c>
       <c r="H10" s="2"/>
@@ -1690,30 +2601,30 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="9">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B10,[1]カラムリスト!$B$4:$B$1000,0),MATCH($U$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B10,[2]カラムリスト!$B$4:$B$1000,0),MATCH($U$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>0</v>
       </c>
       <c r="V10" s="3"/>
     </row>
-    <row r="11" spans="1:22" ht="17.350000000000001" customHeight="1">
+    <row r="11" spans="1:22" ht="17.45" customHeight="1">
       <c r="A11" s="7">
         <v>5</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="14" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B11,[1]カラムリスト!$B$4:$B$1000,0),MATCH($D$6,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B11,[2]カラムリスト!$B$4:$B$1000,0),MATCH($D$6,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>UpdateDate</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="8" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B11,[1]カラムリスト!$B$4:$B$1000,0),MATCH($F$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B11,[2]カラムリスト!$B$4:$B$1000,0),MATCH($F$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>DATETIME</v>
       </c>
       <c r="G11" s="8">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B11,[1]カラムリスト!$B$4:$B$1000,0),MATCH($G$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B11,[2]カラムリスト!$B$4:$B$1000,0),MATCH($G$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>0</v>
       </c>
       <c r="H11" s="2"/>
@@ -1730,30 +2641,30 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="9">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B11,[1]カラムリスト!$B$4:$B$1000,0),MATCH($U$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B11,[2]カラムリスト!$B$4:$B$1000,0),MATCH($U$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>0</v>
       </c>
       <c r="V11" s="3"/>
     </row>
-    <row r="12" spans="1:22" ht="17.350000000000001" customHeight="1">
+    <row r="12" spans="1:22" ht="17.45" customHeight="1">
       <c r="A12" s="7">
         <v>6</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="14" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B12,[1]カラムリスト!$B$4:$B$1000,0),MATCH($D$6,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B12,[2]カラムリスト!$B$4:$B$1000,0),MATCH($D$6,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>UpdateUser</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="8" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B12,[1]カラムリスト!$B$4:$B$1000,0),MATCH($F$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B12,[2]カラムリスト!$B$4:$B$1000,0),MATCH($F$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>VARCHAR</v>
       </c>
       <c r="G12" s="8">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B12,[1]カラムリスト!$B$4:$B$1000,0),MATCH($G$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B12,[2]カラムリスト!$B$4:$B$1000,0),MATCH($G$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>10</v>
       </c>
       <c r="H12" s="2"/>
@@ -1770,30 +2681,30 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="9">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B12,[1]カラムリスト!$B$4:$B$1000,0),MATCH($U$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B12,[2]カラムリスト!$B$4:$B$1000,0),MATCH($U$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>0</v>
       </c>
       <c r="V12" s="3"/>
     </row>
-    <row r="13" spans="1:22" ht="17.350000000000001" customHeight="1">
+    <row r="13" spans="1:22" ht="17.45" customHeight="1">
       <c r="A13" s="7">
         <v>7</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="14" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B13,[1]カラムリスト!$B$4:$B$1000,0),MATCH($D$6,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B13,[2]カラムリスト!$B$4:$B$1000,0),MATCH($D$6,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>DelFlg</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="8" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B13,[1]カラムリスト!$B$4:$B$1000,0),MATCH($F$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B13,[2]カラムリスト!$B$4:$B$1000,0),MATCH($F$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>VARCHAR</v>
       </c>
       <c r="G13" s="8">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B13,[1]カラムリスト!$B$4:$B$1000,0),MATCH($G$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B13,[2]カラムリスト!$B$4:$B$1000,0),MATCH($G$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>1</v>
       </c>
       <c r="H13" s="2"/>
@@ -1810,28 +2721,28 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="9" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B13,[1]カラムリスト!$B$4:$B$1000,0),MATCH($U$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B13,[2]カラムリスト!$B$4:$B$1000,0),MATCH($U$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>0：未削除（初期値） ／ 1：削除</v>
       </c>
       <c r="V13" s="3"/>
     </row>
-    <row r="14" spans="1:22" ht="17.350000000000001" customHeight="1">
+    <row r="14" spans="1:22" ht="17.45" customHeight="1">
       <c r="A14" s="7">
         <v>8</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="31"/>
       <c r="D14" s="14" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B14,[1]カラムリスト!$B$4:$B$1000,0),MATCH($D$6,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B14,[2]カラムリスト!$B$4:$B$1000,0),MATCH($D$6,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v/>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="8" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B14,[1]カラムリスト!$B$4:$B$1000,0),MATCH($F$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B14,[2]カラムリスト!$B$4:$B$1000,0),MATCH($F$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v/>
       </c>
       <c r="G14" s="8" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B14,[1]カラムリスト!$B$4:$B$1000,0),MATCH($G$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B14,[2]カラムリスト!$B$4:$B$1000,0),MATCH($G$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v/>
       </c>
       <c r="H14" s="2"/>
@@ -1848,28 +2759,28 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="9" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B14,[1]カラムリスト!$B$4:$B$1000,0),MATCH($U$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B14,[2]カラムリスト!$B$4:$B$1000,0),MATCH($U$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v/>
       </c>
       <c r="V14" s="3"/>
     </row>
-    <row r="15" spans="1:22" ht="17.350000000000001" customHeight="1">
+    <row r="15" spans="1:22" ht="17.45" customHeight="1">
       <c r="A15" s="7">
         <v>9</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="31"/>
       <c r="D15" s="14" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B15,[1]カラムリスト!$B$4:$B$1000,0),MATCH($D$6,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B15,[2]カラムリスト!$B$4:$B$1000,0),MATCH($D$6,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v/>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="8" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B15,[1]カラムリスト!$B$4:$B$1000,0),MATCH($F$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B15,[2]カラムリスト!$B$4:$B$1000,0),MATCH($F$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v/>
       </c>
       <c r="G15" s="8" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B15,[1]カラムリスト!$B$4:$B$1000,0),MATCH($G$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B15,[2]カラムリスト!$B$4:$B$1000,0),MATCH($G$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v/>
       </c>
       <c r="H15" s="2"/>
@@ -1886,28 +2797,28 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="9" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B15,[1]カラムリスト!$B$4:$B$1000,0),MATCH($U$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B15,[2]カラムリスト!$B$4:$B$1000,0),MATCH($U$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v/>
       </c>
       <c r="V15" s="3"/>
     </row>
-    <row r="16" spans="1:22" ht="17.350000000000001" customHeight="1">
+    <row r="16" spans="1:22" ht="17.45" customHeight="1">
       <c r="A16" s="7">
         <v>10</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="31"/>
       <c r="D16" s="14" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B16,[1]カラムリスト!$B$4:$B$1000,0),MATCH($D$6,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B16,[2]カラムリスト!$B$4:$B$1000,0),MATCH($D$6,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v/>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="8" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B16,[1]カラムリスト!$B$4:$B$1000,0),MATCH($F$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B16,[2]カラムリスト!$B$4:$B$1000,0),MATCH($F$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v/>
       </c>
       <c r="G16" s="8" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B16,[1]カラムリスト!$B$4:$B$1000,0),MATCH($G$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B16,[2]カラムリスト!$B$4:$B$1000,0),MATCH($G$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v/>
       </c>
       <c r="H16" s="2"/>
@@ -1924,28 +2835,28 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="9" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B16,[1]カラムリスト!$B$4:$B$1000,0),MATCH($U$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B16,[2]カラムリスト!$B$4:$B$1000,0),MATCH($U$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v/>
       </c>
       <c r="V16" s="3"/>
     </row>
-    <row r="17" spans="1:22" ht="17.350000000000001" customHeight="1">
+    <row r="17" spans="1:22" ht="17.45" customHeight="1">
       <c r="A17" s="7">
         <v>11</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="31"/>
       <c r="D17" s="14" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B17,[1]カラムリスト!$B$4:$B$1000,0),MATCH($D$6,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B17,[2]カラムリスト!$B$4:$B$1000,0),MATCH($D$6,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v/>
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="8" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B17,[1]カラムリスト!$B$4:$B$1000,0),MATCH($F$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B17,[2]カラムリスト!$B$4:$B$1000,0),MATCH($F$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v/>
       </c>
       <c r="G17" s="8" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B17,[1]カラムリスト!$B$4:$B$1000,0),MATCH($G$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B17,[2]カラムリスト!$B$4:$B$1000,0),MATCH($G$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v/>
       </c>
       <c r="H17" s="2"/>
@@ -1962,28 +2873,28 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="9" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B17,[1]カラムリスト!$B$4:$B$1000,0),MATCH($U$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B17,[2]カラムリスト!$B$4:$B$1000,0),MATCH($U$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v/>
       </c>
       <c r="V17" s="3"/>
     </row>
-    <row r="18" spans="1:22" ht="17.350000000000001" customHeight="1">
+    <row r="18" spans="1:22" ht="17.45" customHeight="1">
       <c r="A18" s="7">
         <v>12</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="31"/>
       <c r="D18" s="14" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B18,[1]カラムリスト!$B$4:$B$1000,0),MATCH($D$6,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B18,[2]カラムリスト!$B$4:$B$1000,0),MATCH($D$6,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v/>
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="8" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B18,[1]カラムリスト!$B$4:$B$1000,0),MATCH($F$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B18,[2]カラムリスト!$B$4:$B$1000,0),MATCH($F$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v/>
       </c>
       <c r="G18" s="8" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B18,[1]カラムリスト!$B$4:$B$1000,0),MATCH($G$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B18,[2]カラムリスト!$B$4:$B$1000,0),MATCH($G$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v/>
       </c>
       <c r="H18" s="2"/>
@@ -2000,28 +2911,28 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="9" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B18,[1]カラムリスト!$B$4:$B$1000,0),MATCH($U$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B18,[2]カラムリスト!$B$4:$B$1000,0),MATCH($U$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v/>
       </c>
       <c r="V18" s="3"/>
     </row>
-    <row r="19" spans="1:22" ht="17.350000000000001" customHeight="1">
+    <row r="19" spans="1:22" ht="17.45" customHeight="1">
       <c r="A19" s="7">
         <v>13</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="31"/>
       <c r="D19" s="14" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B19,[1]カラムリスト!$B$4:$B$1000,0),MATCH($D$6,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B19,[2]カラムリスト!$B$4:$B$1000,0),MATCH($D$6,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v/>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="8" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B19,[1]カラムリスト!$B$4:$B$1000,0),MATCH($F$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B19,[2]カラムリスト!$B$4:$B$1000,0),MATCH($F$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v/>
       </c>
       <c r="G19" s="8" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B19,[1]カラムリスト!$B$4:$B$1000,0),MATCH($G$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B19,[2]カラムリスト!$B$4:$B$1000,0),MATCH($G$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v/>
       </c>
       <c r="H19" s="2"/>
@@ -2038,26 +2949,26 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="9" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B19,[1]カラムリスト!$B$4:$B$1000,0),MATCH($U$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B19,[2]カラムリスト!$B$4:$B$1000,0),MATCH($U$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v/>
       </c>
       <c r="V19" s="3"/>
     </row>
-    <row r="20" spans="1:22" ht="17.350000000000001" customHeight="1">
+    <row r="20" spans="1:22" ht="17.45" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="12"/>
       <c r="C20" s="13"/>
       <c r="D20" s="14" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B20,[1]カラムリスト!$B$4:$B$1000,0),MATCH($D$6,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B20,[2]カラムリスト!$B$4:$B$1000,0),MATCH($D$6,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v/>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="8" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B20,[1]カラムリスト!$B$4:$B$1000,0),MATCH($F$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B20,[2]カラムリスト!$B$4:$B$1000,0),MATCH($F$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v/>
       </c>
       <c r="G20" s="8" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B20,[1]カラムリスト!$B$4:$B$1000,0),MATCH($G$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B20,[2]カラムリスト!$B$4:$B$1000,0),MATCH($G$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v/>
       </c>
       <c r="H20" s="2"/>
@@ -2074,7 +2985,7 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="9" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B20,[1]カラムリスト!$B$4:$B$1000,0),MATCH($U$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$1000,MATCH(B20,[2]カラムリスト!$B$4:$B$1000,0),MATCH($U$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v/>
       </c>
       <c r="V20" s="3"/>
